--- a/my_test_temp/测试包含表格和列表数据的复杂导出2.xlsx
+++ b/my_test_temp/测试包含表格和列表数据的复杂导出2.xlsx
@@ -1110,7 +1110,7 @@
       <main:charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1129,6 +1129,16 @@
         <main:bgColor indexed="64"/>
       </main:patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -1502,28 +1512,28 @@
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="48" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="49" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="50" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="51" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="52" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="3" fontId="53" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="3" fontId="53" fillId="5" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="3" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="3" fontId="54" fillId="5" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="164" fontId="55" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="164" fontId="55" fillId="5" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="164" fontId="56" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="164" fontId="56" fillId="5" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="57" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
@@ -2904,7 +2914,8 @@
     <row r="27" customHeight="true" ht="24.0">
 </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="22">
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
@@ -2914,14 +2925,6 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="A12:E12"/>

--- a/my_test_temp/测试包含表格和列表数据的复杂导出2.xlsx
+++ b/my_test_temp/测试包含表格和列表数据的复杂导出2.xlsx
@@ -21,7 +21,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0;\-\$#,##0"/>
     <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="169">
+  <fonts count="137">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -412,6 +412,7 @@
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="10"/>
+      <main:color theme="1"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
@@ -909,208 +910,8 @@
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="9"/>
-      <main:color theme="0"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="9"/>
-      <main:color theme="0"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="9"/>
-      <main:color theme="0"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="9"/>
-      <main:color theme="0"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="9"/>
-      <main:color theme="0"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="9"/>
-      <main:color theme="0"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="9"/>
-      <main:color theme="0"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="9"/>
-      <main:color theme="0"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="9"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1125,19 +926,47 @@
     </fill>
     <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:patternFill patternType="solid">
-        <main:fgColor theme="0" tint="-0.349986266670736"/>
+        <main:fgColor indexed="49"/>
+        <main:bgColor indexed="64"/>
+      </main:patternFill>
+    </fill>
+    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:patternFill patternType="solid">
+        <main:fgColor indexed="19"/>
         <main:bgColor indexed="64"/>
       </main:patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="10"/>
+        <fgColor indexed="19"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="19"/>
       </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:patternFill patternType="solid">
+        <main:fgColor theme="0" tint="-0.349986266670736"/>
+        <main:bgColor indexed="64"/>
+      </main:patternFill>
+    </fill>
+    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:patternFill patternType="solid">
+        <main:fgColor theme="9" tint="0.6"/>
+        <main:bgColor indexed="64"/>
+      </main:patternFill>
     </fill>
   </fills>
   <borders count="19">
@@ -1366,511 +1195,415 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="10" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="11" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="12" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="13" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="14" fillId="6" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="15" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="16" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="17" fillId="8" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="18" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="19" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="20" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="21" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="22" fillId="8" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="23" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="24" fillId="8" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="25" fillId="6" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="26" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="27" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="28" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="29" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="30" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="31" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="32" fillId="6" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="33" fillId="8" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="34" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="34" fillId="8" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="35" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="35" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="36" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="36" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="37" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="37" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="38" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="38" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="39" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="39" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="40" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="40" fillId="8" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="41" fillId="3" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="41" fillId="4" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="42" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="42" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="43" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="43" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="44" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="44" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="45" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="45" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="46" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="46" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="47" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="47" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="48" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="48" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="49" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="49" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="50" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="50" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="51" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="51" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="52" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="52" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="3" fontId="53" fillId="5" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="3" fontId="53" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="3" fontId="54" fillId="5" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="3" fontId="54" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="164" fontId="55" fillId="5" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="164" fontId="55" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="164" fontId="56" fillId="5" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="164" fontId="56" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="57" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="57" fillId="6" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="58" fillId="4" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="58" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="59" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="59" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="60" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="60" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="61" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="61" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="62" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="62" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="63" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="63" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="64" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="64" fillId="6" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="65" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="65" fillId="8" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="66" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="66" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="67" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="67" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="68" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="68" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="69" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="69" fillId="8" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="70" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="70" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="71" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="71" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="72" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="72" fillId="8" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="73" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="73" fillId="6" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="74" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="74" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="75" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="75" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="76" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="76" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="77" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="77" fillId="6" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="78" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="78" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="79" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="79" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="80" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="80" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="81" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="81" fillId="8" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="82" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="82" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="83" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="83" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="84" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="84" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="85" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="85" fillId="8" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="86" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="86" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="87" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="87" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="88" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="88" fillId="8" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="89" fillId="3" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="89" fillId="4" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="90" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="90" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="91" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="91" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="92" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="92" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="93" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="93" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="94" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="94" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="95" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="95" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="96" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="96" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="97" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="97" fillId="8" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="98" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="98" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="99" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="99" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="100" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="100" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="101" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="101" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="102" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="102" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="103" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="103" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="104" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="104" fillId="8" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="105" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="105" fillId="6" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="106" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="106" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="107" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="107" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="108" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="108" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="109" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="109" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="110" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="110" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="111" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="111" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="112" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="112" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="113" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="113" fillId="8" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="114" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="114" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="115" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="115" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="116" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="116" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="117" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="117" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="118" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="118" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="119" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="119" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="120" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="120" fillId="8" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="121" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="121" fillId="6" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="122" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="122" fillId="6" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="123" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="123" fillId="6" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="124" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="124" fillId="6" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="125" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="125" fillId="6" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="126" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="126" fillId="6" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="127" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="127" fillId="6" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="128" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="128" fillId="6" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="129" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="129" fillId="8" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="130" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="130" fillId="8" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="131" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="131" fillId="8" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="132" fillId="0" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="132" fillId="8" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="133" fillId="0" borderId="17" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="133" fillId="8" borderId="17" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="134" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="134" fillId="8" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="135" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="135" fillId="8" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="136" fillId="0" borderId="18" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="136" fillId="8" borderId="18" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="137" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="138" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="139" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="140" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="141" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="142" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="143" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="144" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="145" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="146" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="147" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="148" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="149" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="150" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="151" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="152" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="153" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="154" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="155" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="156" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="157" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="158" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="159" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="160" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="161" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="162" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="163" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="164" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="165" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="166" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="167" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="168" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -1928,7 +1661,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="true"/>
-    <col min="2" max="2" width="10.875" customWidth="true"/>
+    <col min="2" max="2" width="20.375" customWidth="true"/>
     <col min="3" max="3" width="14.875" customWidth="true"/>
     <col min="4" max="4" width="44.125" customWidth="true"/>
     <col min="5" max="5" width="16.875" customWidth="true"/>
@@ -2233,7 +1966,7 @@
         </is>
       </c>
     </row>
-    <row r="8" customHeight="true" ht="177.0">
+    <row r="8" customHeight="true" ht="66.0">
       <c r="A8" s="57" t="inlineStr">
         <is>
           <t>NO_1</t>
@@ -2275,7 +2008,7 @@
         </is>
       </c>
     </row>
-    <row r="9" customHeight="true" ht="177.0">
+    <row r="9" customHeight="true" ht="66.0">
       <c r="A9" s="57" t="inlineStr">
         <is>
           <t>NO_2</t>
@@ -2317,7 +2050,7 @@
         </is>
       </c>
     </row>
-    <row r="10" customHeight="true" ht="177.0">
+    <row r="10" customHeight="true" ht="66.0">
       <c r="A10" s="57" t="inlineStr">
         <is>
           <t>NO_3</t>
@@ -2737,182 +2470,6 @@
         </is>
       </c>
     </row>
-    <row r="20" customHeight="true" ht="20.1">
-</row>
-    <row r="21" customHeight="true" ht="39.95">
-</row>
-    <row r="22" customHeight="true" ht="15.75">
-      <c r="A22" s="137" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B22" s="138" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C22" s="139" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="140" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E22" s="141" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F22" s="142" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G22" s="143" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H22" s="144" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="23" customHeight="true" ht="15.75">
-      <c r="A23" s="145" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B23" s="146" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C23" s="147" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="148" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E23" s="149" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F23" s="150" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G23" s="151" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H23" s="152" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="24" customHeight="true" ht="17.1">
-      <c r="A24" s="153" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B24" s="154" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C24" s="155" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="156" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E24" s="157" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F24" s="158" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G24" s="159" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H24" s="160" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="25" customHeight="true" ht="24.95">
-      <c r="A25" s="161" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B25" s="162" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C25" s="163" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="164" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E25" s="165" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F25" s="166" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G25" s="167" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H25" s="168" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="26" customHeight="true" ht="21.95">
-</row>
-    <row r="27" customHeight="true" ht="24.0">
-</row>
   </sheetData>
   <mergeCells count="22">
     <mergeCell ref="A8:A9"/>

--- a/my_test_temp/测试包含表格和列表数据的复杂导出2.xlsx
+++ b/my_test_temp/测试包含表格和列表数据的复杂导出2.xlsx
@@ -21,7 +21,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0;\-\$#,##0"/>
     <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="137">
+  <fonts count="145">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -403,6 +403,47 @@
       <main:sz val="10"/>
       <main:color theme="1"/>
       <main:name val="宋体"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -1195,7 +1236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center"/>
@@ -1383,35 +1424,35 @@
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="62" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="63" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="63" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="64" fillId="6" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="64" fillId="6" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="65" fillId="8" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="66" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="67" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="68" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="69" fillId="8" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="70" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="71" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="72" fillId="8" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="center" vertical="center"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="65" fillId="8" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="66" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="67" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="68" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="69" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="70" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="71" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="72" fillId="8" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="73" fillId="6" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
@@ -1461,53 +1502,53 @@
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="88" fillId="8" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="89" fillId="4" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="89" fillId="6" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="90" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="91" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="92" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="93" fillId="6" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="94" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="95" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="96" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="97" fillId="3" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="90" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="98" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="91" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="99" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="92" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="100" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="93" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="101" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="94" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="102" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="95" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="103" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="96" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="104" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="97" fillId="8" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="98" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="99" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="100" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="101" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="102" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="103" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="104" fillId="8" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="105" fillId="6" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1557,52 +1598,76 @@
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="120" fillId="8" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="121" fillId="6" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="121" fillId="6" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="122" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="123" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="124" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="125" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="126" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="127" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="128" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="129" fillId="8" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="122" fillId="6" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="130" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="123" fillId="6" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="131" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="124" fillId="6" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="132" fillId="8" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="125" fillId="6" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="133" fillId="8" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="126" fillId="6" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="134" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="127" fillId="6" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="135" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="128" fillId="6" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="136" fillId="8" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="129" fillId="8" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="137" fillId="6" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="130" fillId="8" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="138" fillId="6" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="131" fillId="8" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="139" fillId="6" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="132" fillId="8" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="140" fillId="6" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="133" fillId="8" borderId="17" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="141" fillId="6" borderId="17" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="134" fillId="8" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="142" fillId="6" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="135" fillId="8" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="143" fillId="6" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="136" fillId="8" borderId="18" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="144" fillId="6" borderId="18" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1615,13 +1680,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1969,138 +2034,123 @@
     <row r="8" customHeight="true" ht="66.0">
       <c r="A8" s="57" t="inlineStr">
         <is>
-          <t>NO_1</t>
+          <t>序号</t>
         </is>
       </c>
       <c r="B8" s="58" t="inlineStr">
         <is>
-          <t>ssssss111</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" s="59" t="inlineStr">
         <is>
-          <t/>
+          <t>3</t>
         </is>
       </c>
       <c r="D8" s="60" t="inlineStr">
         <is>
-          <t/>
+          <t>4</t>
         </is>
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
-          <t/>
+          <t>5</t>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
         <is>
-          <t/>
+          <t>6</t>
         </is>
       </c>
       <c r="G8" s="63" t="inlineStr">
         <is>
-          <t/>
+          <t>7.0</t>
         </is>
       </c>
       <c r="H8" s="64" t="inlineStr">
         <is>
-          <t/>
+          <t>6.0</t>
         </is>
       </c>
     </row>
     <row r="9" customHeight="true" ht="66.0">
-      <c r="A9" s="57" t="inlineStr">
-        <is>
-          <t>NO_2</t>
-        </is>
-      </c>
-      <c r="B9" s="58" t="inlineStr">
-        <is>
-          <t>ssssss222</t>
-        </is>
-      </c>
-      <c r="C9" s="59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E9" s="61" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F9" s="62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G9" s="63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H9" s="64" t="inlineStr">
+      <c r="B9" s="66" t="inlineStr">
+        <is>
+          <t>ssssss111</t>
+        </is>
+      </c>
+      <c r="C9" s="67" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D9" s="68" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E9" s="69" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F9" s="70" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G9" s="71" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H9" s="72" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="10" customHeight="true" ht="66.0">
-      <c r="A10" s="57" t="inlineStr">
-        <is>
-          <t>NO_3</t>
-        </is>
-      </c>
-      <c r="B10" s="58" t="inlineStr">
-        <is>
-          <t>ssssss333</t>
-        </is>
-      </c>
-      <c r="C10" s="59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E10" s="61" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F10" s="62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G10" s="63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H10" s="64" t="inlineStr">
+      <c r="B10" s="66" t="inlineStr">
+        <is>
+          <t>ssssss222</t>
+        </is>
+      </c>
+      <c r="C10" s="67" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D10" s="68" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E10" s="69" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F10" s="70" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G10" s="71" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H10" s="72" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="11" customHeight="true" ht="66.0">
-      <c r="A11" s="65" t="inlineStr">
-        <is>
-          <t>产品总金额:</t>
-        </is>
-      </c>
       <c r="B11" s="66" t="inlineStr">
         <is>
-          <t/>
+          <t>ssssss333</t>
         </is>
       </c>
       <c r="C11" s="67" t="inlineStr">
@@ -2120,7 +2170,7 @@
       </c>
       <c r="F11" s="70" t="inlineStr">
         <is>
-          <t>15.66</t>
+          <t/>
         </is>
       </c>
       <c r="G11" s="71" t="inlineStr">
@@ -2137,49 +2187,49 @@
     <row r="12" customHeight="true" ht="66.0">
       <c r="A12" s="73" t="inlineStr">
         <is>
+          <t>产品总金额:</t>
+        </is>
+      </c>
+      <c r="B12" s="74" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C12" s="75" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D12" s="76" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E12" s="77" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F12" s="78" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="G12" s="79" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H12" s="80" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="13" customHeight="true" ht="66.0">
+      <c r="A13" s="81" t="inlineStr">
+        <is>
           <t>附加费用:</t>
-        </is>
-      </c>
-      <c r="B12" s="74" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C12" s="75" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="76" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E12" s="77" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F12" s="78" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G12" s="79" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H12" s="80" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="13" customHeight="true" ht="20.1">
-      <c r="A13" s="81" t="inlineStr">
-        <is>
-          <t>订单总金额:</t>
         </is>
       </c>
       <c r="B13" s="82" t="inlineStr">
@@ -2221,7 +2271,7 @@
     <row r="14" customHeight="true" ht="20.1">
       <c r="A14" s="89" t="inlineStr">
         <is>
-          <t>其他信息</t>
+          <t>订单总金额:</t>
         </is>
       </c>
       <c r="B14" s="90" t="inlineStr">
@@ -2263,7 +2313,7 @@
     <row r="15" customHeight="true" ht="20.1">
       <c r="A15" s="97" t="inlineStr">
         <is>
-          <t>运输方式：</t>
+          <t>其他信息</t>
         </is>
       </c>
       <c r="B15" s="98" t="inlineStr">
@@ -2305,7 +2355,7 @@
     <row r="16" customHeight="true" ht="20.1">
       <c r="A16" s="105" t="inlineStr">
         <is>
-          <t>付款方式：</t>
+          <t>运输方式：</t>
         </is>
       </c>
       <c r="B16" s="106" t="inlineStr">
@@ -2347,7 +2397,7 @@
     <row r="17" customHeight="true" ht="20.1">
       <c r="A17" s="113" t="inlineStr">
         <is>
-          <t>交货期：</t>
+          <t>付款方式：</t>
         </is>
       </c>
       <c r="B17" s="114" t="inlineStr">
@@ -2389,7 +2439,7 @@
     <row r="18" customHeight="true" ht="20.1">
       <c r="A18" s="121" t="inlineStr">
         <is>
-          <t>买方签字：张三</t>
+          <t>交货期：</t>
         </is>
       </c>
       <c r="B18" s="122" t="inlineStr">
@@ -2409,7 +2459,7 @@
       </c>
       <c r="E18" s="125" t="inlineStr">
         <is>
-          <t>卖方签字：李四</t>
+          <t/>
         </is>
       </c>
       <c r="F18" s="126" t="inlineStr">
@@ -2431,7 +2481,7 @@
     <row r="19" customHeight="true" ht="20.1">
       <c r="A19" s="129" t="inlineStr">
         <is>
-          <t/>
+          <t>买方签字：张三</t>
         </is>
       </c>
       <c r="B19" s="130" t="inlineStr">
@@ -2451,7 +2501,7 @@
       </c>
       <c r="E19" s="133" t="inlineStr">
         <is>
-          <t/>
+          <t>卖方签字：李四</t>
         </is>
       </c>
       <c r="F19" s="134" t="inlineStr">
@@ -2465,6 +2515,48 @@
         </is>
       </c>
       <c r="H19" s="136" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="20" customHeight="true" ht="20.1">
+      <c r="A20" s="137" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B20" s="138" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C20" s="139" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D20" s="140" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E20" s="141" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F20" s="142" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G20" s="143" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H20" s="144" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2482,18 +2574,18 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:H11"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:H14"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:H19"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="E19:H20"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/my_test_temp/测试包含表格和列表数据的复杂导出2.xlsx
+++ b/my_test_temp/测试包含表格和列表数据的复杂导出2.xlsx
@@ -29,922 +29,936 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="18"/>
       <main:color theme="1"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="18"/>
       <main:color theme="1"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="18"/>
       <main:color theme="1"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="18"/>
       <main:color theme="1"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="18"/>
       <main:color theme="1"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="18"/>
       <main:color theme="1"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="18"/>
       <main:color theme="1"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="18"/>
       <main:color theme="1"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="10"/>
       <main:color theme="0"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="10"/>
       <main:color theme="0"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="10"/>
       <main:color theme="0"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="10"/>
       <main:color theme="0"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="10"/>
       <main:color theme="0"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="10"/>
       <main:color theme="0"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="10"/>
       <main:color theme="0"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="10"/>
       <main:color theme="0"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="10"/>
       <main:color theme="1"/>
       <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:family val="3"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="10"/>
       <main:color theme="1"/>
       <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:family val="3"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="10"/>
       <main:color theme="1"/>
       <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:family val="3"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="10"/>
       <main:color theme="1"/>
       <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:family val="3"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="10"/>
       <main:color theme="1"/>
       <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:family val="3"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="10"/>
       <main:color theme="1"/>
       <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:family val="3"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="10"/>
       <main:color theme="1"/>
       <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:family val="3"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="10"/>
       <main:color theme="1"/>
       <main:name val="宋体"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:family val="3"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Microsoft YaHei UI"/>
+      <main:family val="2"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="Microsoft YaHei UI"/>
+      <main:family val="2"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="Microsoft YaHei UI"/>
+      <main:family val="2"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="Microsoft YaHei UI"/>
+      <main:family val="2"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="10"/>
       <main:color theme="0"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="10"/>
       <main:color theme="0"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="10"/>
       <main:color theme="0"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="10"/>
       <main:color theme="0"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="10"/>
       <main:color theme="0"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="10"/>
       <main:color theme="0"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="10"/>
       <main:color theme="0"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="10"/>
       <main:color theme="0"/>
       <main:name val="等线 Regular"/>
       <main:charset val="134"/>
     </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:b/>
-      <main:sz val="10"/>
-      <main:color theme="1"/>
-      <main:name val="等线 Regular"/>
-      <main:charset val="134"/>
-    </font>
-    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:b/>
+      <main:sz val="10"/>
+      <main:color theme="1"/>
+      <main:name val="等线 Regular"/>
+      <main:charset val="134"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:b/>
       <main:sz val="10"/>
       <main:color theme="1"/>
@@ -959,19 +973,19 @@
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
-    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <fill xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:patternFill patternType="solid">
-        <main:fgColor theme="0" tint="-0.25"/>
+        <main:fgColor theme="0" tint="-0.249977111117893"/>
         <main:bgColor indexed="64"/>
       </main:patternFill>
     </fill>
-    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <fill xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:patternFill patternType="solid">
         <main:fgColor indexed="49"/>
         <main:bgColor indexed="64"/>
       </main:patternFill>
     </fill>
-    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <fill xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:patternFill patternType="solid">
         <main:fgColor indexed="19"/>
         <main:bgColor indexed="64"/>
@@ -997,15 +1011,15 @@
         <fgColor indexed="49"/>
       </patternFill>
     </fill>
-    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <fill xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:patternFill patternType="solid">
-        <main:fgColor theme="0" tint="-0.349986266670736"/>
+        <main:fgColor theme="0" tint="-0.34998626667073579"/>
         <main:bgColor indexed="64"/>
       </main:patternFill>
     </fill>
-    <fill xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <fill xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:patternFill patternType="solid">
-        <main:fgColor theme="9" tint="0.6"/>
+        <main:fgColor theme="9" tint="0.59999389629810485"/>
         <main:bgColor indexed="64"/>
       </main:patternFill>
     </fill>
@@ -1018,7 +1032,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:left style="medium">
         <main:color auto="1"/>
       </main:left>
@@ -1033,7 +1047,7 @@
       </main:bottom>
       <main:diagonal/>
     </border>
-    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:left style="thin">
         <main:color auto="1"/>
       </main:left>
@@ -1048,7 +1062,7 @@
       </main:bottom>
       <main:diagonal/>
     </border>
-    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:left style="thin">
         <main:color auto="1"/>
       </main:left>
@@ -1063,7 +1077,7 @@
       </main:bottom>
       <main:diagonal/>
     </border>
-    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:left style="thin">
         <main:color auto="1"/>
       </main:left>
@@ -1076,7 +1090,7 @@
       </main:bottom>
       <main:diagonal/>
     </border>
-    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:left/>
       <main:right/>
       <main:top style="thin">
@@ -1087,7 +1101,7 @@
       </main:bottom>
       <main:diagonal/>
     </border>
-    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:left/>
       <main:right style="medium">
         <main:color auto="1"/>
@@ -1100,7 +1114,7 @@
       </main:bottom>
       <main:diagonal/>
     </border>
-    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:left style="thin">
         <main:color auto="1"/>
       </main:left>
@@ -1111,7 +1125,7 @@
       <main:bottom/>
       <main:diagonal/>
     </border>
-    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:left/>
       <main:right/>
       <main:top style="thin">
@@ -1120,7 +1134,7 @@
       <main:bottom/>
       <main:diagonal/>
     </border>
-    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:left/>
       <main:right style="medium">
         <main:color auto="1"/>
@@ -1131,7 +1145,7 @@
       <main:bottom/>
       <main:diagonal/>
     </border>
-    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:left style="medium">
         <main:color auto="1"/>
       </main:left>
@@ -1144,7 +1158,7 @@
       </main:bottom>
       <main:diagonal/>
     </border>
-    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:left/>
       <main:right style="thin">
         <main:color auto="1"/>
@@ -1157,7 +1171,7 @@
       </main:bottom>
       <main:diagonal/>
     </border>
-    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:left style="medium">
         <main:color auto="1"/>
       </main:left>
@@ -1168,7 +1182,7 @@
       <main:bottom/>
       <main:diagonal/>
     </border>
-    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:left/>
       <main:right style="thin">
         <main:color auto="1"/>
@@ -1179,7 +1193,7 @@
       <main:bottom/>
       <main:diagonal/>
     </border>
-    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:left style="medium">
         <main:color auto="1"/>
       </main:left>
@@ -1190,7 +1204,7 @@
       </main:bottom>
       <main:diagonal/>
     </border>
-    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:left/>
       <main:right/>
       <main:top/>
@@ -1199,7 +1213,7 @@
       </main:bottom>
       <main:diagonal/>
     </border>
-    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:left/>
       <main:right style="thin">
         <main:color auto="1"/>
@@ -1210,7 +1224,7 @@
       </main:bottom>
       <main:diagonal/>
     </border>
-    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:left style="thin">
         <main:color auto="1"/>
       </main:left>
@@ -1221,7 +1235,7 @@
       </main:bottom>
       <main:diagonal/>
     </border>
-    <border xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <border xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:left/>
       <main:right style="medium">
         <main:color auto="1"/>
@@ -1238,436 +1252,436 @@
   </cellStyleXfs>
   <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="10" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="10" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="11" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="11" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="12" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="12" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="13" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="13" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="14" fillId="6" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="14" fillId="6" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="15" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="15" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="16" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="16" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="17" fillId="8" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="17" fillId="8" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="18" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="18" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="19" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="19" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="20" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="20" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="21" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="21" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="22" fillId="8" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="22" fillId="8" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="23" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="23" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="24" fillId="8" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="24" fillId="8" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="25" fillId="6" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="25" fillId="6" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="26" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="26" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="27" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="27" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="28" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="28" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="29" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="29" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="30" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="30" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="31" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="31" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="32" fillId="6" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="32" fillId="6" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="33" fillId="8" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="33" fillId="8" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="34" fillId="8" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="34" fillId="8" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="35" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="35" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="36" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="36" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="37" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="37" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="38" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="38" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="39" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="39" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="40" fillId="8" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="40" fillId="8" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="41" fillId="4" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="41" fillId="4" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="42" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="42" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="43" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="43" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="44" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="44" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="45" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="45" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="46" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="46" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="47" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="47" fillId="4" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="48" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="48" fillId="4" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="49" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="49" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="50" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="50" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="51" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="51" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="52" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="52" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="3" fontId="53" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="3" fontId="53" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="3" fontId="54" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="3" fontId="54" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="164" fontId="55" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="164" fontId="55" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="164" fontId="56" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="164" fontId="56" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="57" fillId="6" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="57" fillId="6" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="58" fillId="4" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="58" fillId="4" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="59" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="59" fillId="4" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="60" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="60" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="61" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="61" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="62" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="62" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="63" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="63" fillId="6" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="64" fillId="6" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="64" fillId="6" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="65" fillId="8" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="66" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="67" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+      <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="68" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="69" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="70" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="71" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="72" fillId="8" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="65" fillId="8" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="66" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
-      <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="67" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="68" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="69" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="70" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="71" fillId="8" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" fontId="72" fillId="8" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
-      <main:alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="73" fillId="6" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="73" fillId="6" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="74" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="74" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="75" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="75" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="76" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="76" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="77" fillId="6" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="77" fillId="6" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="78" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="78" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="79" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="79" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="80" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="80" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="81" fillId="8" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="81" fillId="8" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="82" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="82" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="83" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="83" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="84" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="84" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="85" fillId="8" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="85" fillId="8" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="86" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="86" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="87" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="87" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="88" fillId="8" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="88" fillId="8" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="89" fillId="6" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="89" fillId="6" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="90" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="90" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="91" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="91" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="92" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="92" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="93" fillId="6" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="93" fillId="6" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="94" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="94" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="95" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="95" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="96" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="96" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="97" fillId="3" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="97" fillId="3" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="98" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="98" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="99" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="99" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="100" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="100" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="101" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="101" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="102" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="102" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="103" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="103" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="104" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="104" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="105" fillId="6" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="105" fillId="6" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="106" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="106" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="107" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="107" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="108" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="108" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="109" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="109" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="110" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="110" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="111" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="111" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="112" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="112" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="113" fillId="8" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="113" fillId="8" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="114" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="114" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="115" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="115" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="116" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="116" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="117" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="117" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="118" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="118" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="119" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="119" fillId="8" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="120" fillId="8" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="120" fillId="8" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="121" fillId="6" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="121" fillId="6" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="122" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="122" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="123" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="123" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="124" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="124" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="125" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="125" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="126" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="126" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="127" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="127" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="128" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="128" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="129" fillId="8" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="129" fillId="8" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="130" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="130" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="131" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="131" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="132" fillId="8" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="132" fillId="8" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="133" fillId="8" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="133" fillId="8" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="134" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="134" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="135" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="135" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="136" fillId="8" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="136" fillId="8" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="137" fillId="6" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="137" fillId="6" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="138" fillId="6" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="138" fillId="6" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="139" fillId="6" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="139" fillId="6" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="140" fillId="6" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="140" fillId="6" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="141" fillId="6" borderId="17" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="141" fillId="6" borderId="17" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="142" fillId="6" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="142" fillId="6" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="143" fillId="6" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="143" fillId="6" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="144" fillId="6" borderId="18" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="49" fontId="144" fillId="6" borderId="18" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="1" applyFill="true">
       <main:alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1730,7 +1744,7 @@
     <col min="3" max="3" width="14.875" customWidth="true"/>
     <col min="4" max="4" width="44.125" customWidth="true"/>
     <col min="5" max="5" width="16.875" customWidth="true"/>
-    <col min="6" max="6" width="9.625" customWidth="true"/>
+    <col min="6" max="6" width="14.625" customWidth="true"/>
     <col min="7" max="7" width="8.875" customWidth="true"/>
     <col min="8" max="8" width="12.875" customWidth="true"/>
   </cols>
@@ -2039,51 +2053,56 @@
       </c>
       <c r="B8" s="58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>测试</t>
         </is>
       </c>
       <c r="C8" s="59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>ddddcccc</t>
         </is>
       </c>
       <c r="D8" s="60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>进口海鲜</t>
         </is>
       </c>
       <c r="E8" s="61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t/>
         </is>
       </c>
       <c r="F8" s="62" t="inlineStr">
         <is>
-          <t>6</t>
+          <t/>
         </is>
       </c>
       <c r="G8" s="63" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t/>
         </is>
       </c>
       <c r="H8" s="64" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t/>
         </is>
       </c>
     </row>
     <row r="9" customHeight="true" ht="66.0">
-      <c r="B9" s="66" t="inlineStr">
+      <c r="A9" s="9" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B9" s="14" t="inlineStr">
+        <is>
+          <t>测试产品名称1</t>
+        </is>
+      </c>
+      <c r="C9" s="67" t="inlineStr">
         <is>
           <t>ssssss111</t>
         </is>
       </c>
-      <c r="C9" s="67" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="D9" s="68" t="inlineStr">
         <is>
           <t/>
@@ -2096,7 +2115,7 @@
       </c>
       <c r="F9" s="70" t="inlineStr">
         <is>
-          <t/>
+          <t>哈哈测试</t>
         </is>
       </c>
       <c r="G9" s="71" t="inlineStr">
@@ -2111,16 +2130,21 @@
       </c>
     </row>
     <row r="10" customHeight="true" ht="66.0">
-      <c r="B10" s="66" t="inlineStr">
+      <c r="A10" s="9" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B10" s="14" t="inlineStr">
+        <is>
+          <t>测试产品名称1</t>
+        </is>
+      </c>
+      <c r="C10" s="67" t="inlineStr">
         <is>
           <t>ssssss222</t>
         </is>
       </c>
-      <c r="C10" s="67" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="D10" s="68" t="inlineStr">
         <is>
           <t/>
@@ -2133,7 +2157,7 @@
       </c>
       <c r="F10" s="70" t="inlineStr">
         <is>
-          <t/>
+          <t>哈哈测试</t>
         </is>
       </c>
       <c r="G10" s="71" t="inlineStr">
@@ -2148,16 +2172,21 @@
       </c>
     </row>
     <row r="11" customHeight="true" ht="66.0">
-      <c r="B11" s="66" t="inlineStr">
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B11" s="14" t="inlineStr">
+        <is>
+          <t>测试产品名称1</t>
+        </is>
+      </c>
+      <c r="C11" s="67" t="inlineStr">
         <is>
           <t>ssssss333</t>
         </is>
       </c>
-      <c r="C11" s="67" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="D11" s="68" t="inlineStr">
         <is>
           <t/>
@@ -2170,7 +2199,7 @@
       </c>
       <c r="F11" s="70" t="inlineStr">
         <is>
-          <t/>
+          <t>哈哈测试</t>
         </is>
       </c>
       <c r="G11" s="71" t="inlineStr">
